--- a/ملفات الاكسل لمشروع التخرج/‏‏‏‏‏‏plan-subject-دبلوم الاتصالات السلكية واللاسلكية.xlsx
+++ b/ملفات الاكسل لمشروع التخرج/‏‏‏‏‏‏plan-subject-دبلوم الاتصالات السلكية واللاسلكية.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bit\Desktop\tamplete\final\timetable-pro\ملفات الاكسل لمشروع التخرج\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F88D2AC-9EA5-4139-9CE8-03BA135054D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419EF797-595A-4557-837D-0FB6A12F36BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>plan_subject_id</t>
   </si>
@@ -60,121 +60,133 @@
     <t>First</t>
   </si>
   <si>
-    <t>MEE01104</t>
-  </si>
-  <si>
-    <t>BUS02245</t>
-  </si>
-  <si>
-    <t>ACD03001</t>
-  </si>
-  <si>
-    <t>ACD03000</t>
-  </si>
-  <si>
-    <t>EEE11160</t>
-  </si>
-  <si>
-    <t>COMP0315</t>
-  </si>
-  <si>
-    <t>ACD03108</t>
-  </si>
-  <si>
-    <t>ACD03002</t>
-  </si>
-  <si>
-    <t>ACD03111</t>
-  </si>
-  <si>
-    <t>EEE13101</t>
-  </si>
-  <si>
-    <t>EEE13200</t>
-  </si>
-  <si>
-    <t>EEE13102</t>
-  </si>
-  <si>
-    <t>EEE11200</t>
-  </si>
-  <si>
-    <t>ACD03120</t>
-  </si>
-  <si>
-    <t>EEE02202</t>
-  </si>
-  <si>
-    <t>EEE13100</t>
-  </si>
-  <si>
-    <t>EEE33100</t>
-  </si>
-  <si>
-    <t>BUD01144</t>
-  </si>
-  <si>
-    <t>EEE33201</t>
-  </si>
-  <si>
-    <t>EEE33205</t>
-  </si>
-  <si>
-    <t>EEE33207</t>
-  </si>
-  <si>
-    <t>EEE33209</t>
-  </si>
-  <si>
-    <t>EEE73201</t>
-  </si>
-  <si>
-    <t>EEE73202</t>
-  </si>
-  <si>
-    <t>EEE02203</t>
-  </si>
-  <si>
-    <t>EEE93208</t>
-  </si>
-  <si>
-    <t>EEE33206</t>
-  </si>
-  <si>
-    <t>EEE33208</t>
-  </si>
-  <si>
     <t>WWC</t>
   </si>
   <si>
-    <t>دبلوم الاتصالات السلكية واللاسلكية</t>
-  </si>
-  <si>
-    <t>إتصالات رقمية</t>
-  </si>
-  <si>
-    <t>أنظمة الهواتف</t>
-  </si>
-  <si>
-    <t>إلكترونيات الاتصالات</t>
-  </si>
-  <si>
-    <t>الاتصالات اللاسلكية</t>
-  </si>
-  <si>
-    <t>الهواتف وانتشار الموجات</t>
-  </si>
-  <si>
     <t xml:space="preserve">خطوط النقل </t>
   </si>
   <si>
-    <t>صيانة أجهزة الاتصالات</t>
-  </si>
-  <si>
-    <t>تراسل البيانات والشبكات</t>
-  </si>
-  <si>
     <t>أنظمة الاتصالات الحديثة</t>
+  </si>
+  <si>
+    <t>اللغة الإنجليزية</t>
+  </si>
+  <si>
+    <t>اللغة العربية</t>
+  </si>
+  <si>
+    <t>مبادئ الكهرباء - نظري</t>
+  </si>
+  <si>
+    <t>مبادئ الكهرباء - عملي</t>
+  </si>
+  <si>
+    <t>فيزياء - نظري</t>
+  </si>
+  <si>
+    <t>فيزياء - عملي</t>
+  </si>
+  <si>
+    <t>مشغل هندسي</t>
+  </si>
+  <si>
+    <t>المهارات الرقمية - نظري</t>
+  </si>
+  <si>
+    <t>المهارات الرقمية - عملي</t>
+  </si>
+  <si>
+    <t>رياضيات</t>
+  </si>
+  <si>
+    <t>دراسات في الفكر العربي الإسلامي</t>
+  </si>
+  <si>
+    <t>إلكترونيات I</t>
+  </si>
+  <si>
+    <t>مبادئ الاتصالات - نظري</t>
+  </si>
+  <si>
+    <t>مبادئ الاتصالات - عملي</t>
+  </si>
+  <si>
+    <t>تصميم دوائر المنطق - نظري</t>
+  </si>
+  <si>
+    <t>تصميم دوائر المنطق - عملي</t>
+  </si>
+  <si>
+    <t>مشغل كهربائي</t>
+  </si>
+  <si>
+    <t>التصميم الإلكتروني بمساعدة الحاسوب</t>
+  </si>
+  <si>
+    <t>ريادة الأعمال I</t>
+  </si>
+  <si>
+    <t>إلكترونيات II - نظري</t>
+  </si>
+  <si>
+    <t>إلكترونيات II - عملي</t>
+  </si>
+  <si>
+    <t>إتصالات رقمية - نظري</t>
+  </si>
+  <si>
+    <t>إتصالات رقمية - عملي</t>
+  </si>
+  <si>
+    <t>أنظمة الهواتف - نظري</t>
+  </si>
+  <si>
+    <t>أنظمة الهواتف - عملي</t>
+  </si>
+  <si>
+    <t>إلكترونيات الاتصالات - نظري</t>
+  </si>
+  <si>
+    <t>إلكترونيات الاتصالات - عملي</t>
+  </si>
+  <si>
+    <t>الاتصالات اللاسلكية - نظري</t>
+  </si>
+  <si>
+    <t>الاتصالات اللاسلكية - عملي</t>
+  </si>
+  <si>
+    <t>تاريخ القدس</t>
+  </si>
+  <si>
+    <t>ريادة الأعمال II - نظري</t>
+  </si>
+  <si>
+    <t>ريادة الأعمال II - عملي</t>
+  </si>
+  <si>
+    <t>الهواتف وانتشار الموجات - نظري</t>
+  </si>
+  <si>
+    <t>الهواتف وانتشار الموجات - عملي</t>
+  </si>
+  <si>
+    <t>تدريب ميداني</t>
+  </si>
+  <si>
+    <t>مشروع التخرج</t>
+  </si>
+  <si>
+    <t>صيانة أجهزة الاتصالات - نظري</t>
+  </si>
+  <si>
+    <t>صيانة أجهزة الاتصالات - عملي</t>
+  </si>
+  <si>
+    <t>تراسل البيانات والشبكات - نظري</t>
+  </si>
+  <si>
+    <t>تراسل البيانات والشبكات - عملي</t>
   </si>
 </sst>
 </file>
@@ -196,7 +208,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,12 +218,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,11 +234,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
@@ -513,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -554,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -563,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -571,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -580,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -588,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -597,7 +602,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -605,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -614,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -622,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -631,7 +636,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -639,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -648,66 +653,69 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>40</v>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>40</v>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>40</v>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -716,15 +724,15 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>40</v>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -733,15 +741,15 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>40</v>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -750,15 +758,15 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>40</v>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -767,15 +775,15 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>40</v>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -784,112 +792,103 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>40</v>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>40</v>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
-        <v>40</v>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>40</v>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
         <v>32</v>
       </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>40</v>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -898,15 +897,15 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>40</v>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -915,141 +914,367 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
         <v>39</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>39</v>
       </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" t="s">
-        <v>49</v>
+      <c r="B43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
